--- a/src/src_backend/src/utils/temp.xlsx
+++ b/src/src_backend/src/utils/temp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uploads_data\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D55753-96A0-4001-BE42-8EE5C0366987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB2689E-F117-4917-8169-6644AB934A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{FC38F631-3D31-432E-84D5-C59FA65CD1BB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>mobile</t>
   </si>
@@ -33,10 +33,13 @@
     <t>Ashok Ambore</t>
   </si>
   <si>
+    <t>Dipak Wable</t>
+  </si>
+  <si>
+    <t>Kuldeep Jadhav</t>
+  </si>
+  <si>
     <t>Sadanand Khobare</t>
-  </si>
-  <si>
-    <t>Prakash Rathawa</t>
   </si>
   <si>
     <t>full_name</t>
@@ -391,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06394E03-896A-4A59-850B-3135DB21CFC5}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,7 +409,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -417,12 +420,12 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9021847238</v>
+        <v>7767944781</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>8080382682</v>
@@ -430,10 +433,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9763671331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>9325994763</v>
+      <c r="B5">
+        <v>7219009062</v>
       </c>
     </row>
   </sheetData>
